--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_34.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_34.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -437,7 +437,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F2">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F3">
@@ -503,7 +503,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F4">
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F5">
@@ -589,7 +589,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F6">
@@ -632,7 +632,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F7">
@@ -675,7 +675,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F8">
@@ -718,7 +718,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F9">
@@ -761,7 +761,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F10">
@@ -804,7 +804,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F11">
@@ -847,7 +847,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F12">
@@ -890,7 +890,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F13">
@@ -933,7 +933,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F14">
@@ -976,7 +976,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F15">
@@ -1019,7 +1019,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F16">
@@ -1062,7 +1062,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F17">
@@ -1105,7 +1105,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F18">
@@ -1140,6 +1140,264 @@
         </is>
       </c>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>URANSCA</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CITHMAC</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
